--- a/TestScreenShotDemo/TestData/test123data.xlsx
+++ b/TestScreenShotDemo/TestData/test123data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{346BB013-B1B3-4215-BA9F-7FC6E8561392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BEB79CE0-C9F5-452A-ABC4-6C3FC9B65DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="375" windowWidth="13620" windowHeight="10890" activeTab="2" xr2:uid="{2B58A824-D807-4637-B27B-ACC8C63CD26F}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="13650" windowHeight="11700" firstSheet="1" activeTab="2" xr2:uid="{2B58A824-D807-4637-B27B-ACC8C63CD26F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Paladion Networks With O365" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F6"/>
+  <oleSize ref="A1:E1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABFF74D-E0FB-41EC-9121-430FAF4A5C4F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
